--- a/biology/Zoologie/Firouzophrynus_peninsularis/Firouzophrynus_peninsularis.xlsx
+++ b/biology/Zoologie/Firouzophrynus_peninsularis/Firouzophrynus_peninsularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Firouzophrynus peninsularis est une espèce d'amphibiens de la famille des Bufonidae[1], endémique de l'Inde.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Firouzophrynus peninsularis est une espèce d'amphibiens de la famille des Bufonidae, endémique de l'Inde.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du sud de l'Inde. On la retrouve dans les régions de Maharashtra, de l'Andhra Pradesh, du Karnāṭaka, du Telangana et du Tamil Nadu[1],[2]. Elle vit dans les forêts et les zones humides[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du sud de l'Inde. On la retrouve dans les régions de Maharashtra, de l'Andhra Pradesh, du Karnāṭaka, du Telangana et du Tamil Nadu,. Elle vit dans les forêts et les zones humides.
 </t>
         </is>
       </c>
@@ -542,11 +556,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 2013, certains chercheurs considèrent cette espèce comme synonyme de Duttaphrynus scaber. Après des études en 2021, elle est de nouveau considérée comme une espèce distincte[3].
-Publication originale
-(en) C R Narayan Rao, Some South Indian Batrachians, Journal of the Bombay Natural History Society, 1920 (lire en ligne)</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, certains chercheurs considèrent cette espèce comme synonyme de Duttaphrynus scaber. Après des études en 2021, elle est de nouveau considérée comme une espèce distincte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Firouzophrynus_peninsularis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Firouzophrynus_peninsularis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) C R Narayan Rao, Some South Indian Batrachians, Journal of the Bombay Natural History Society, 1920 (lire en ligne)</t>
         </is>
       </c>
     </row>
